--- a/DATAMODEL/0007d2_CreateSurveyList.xlsx
+++ b/DATAMODEL/0007d2_CreateSurveyList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tim_sbnnicy\AppData\Roaming\QGIS\QGIS3\profiles\default\python\plugins\demandVRMsForm\DATAMODEL\DemandSetup\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tim_sbnnicy\AppData\Roaming\QGIS\QGIS3\profiles\default\python\plugins\demandForm\DATAMODEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1E83AF3-E4CE-4E8B-8D00-5BAC7170B6EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEEA52DE-4578-4009-BE05-C8BB051C0290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{37DC121B-DB6F-42E5-88E0-370653AE9A74}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{37DC121B-DB6F-42E5-88E0-370653AE9A74}"/>
   </bookViews>
   <sheets>
     <sheet name="Surveys" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="7">
   <si>
     <t>Tuesday</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>Wednesday</t>
+  </si>
+  <si>
+    <t>Thursday</t>
   </si>
 </sst>
 </file>
@@ -414,7 +417,7 @@
   <dimension ref="A1:G55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4:G5"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -433,20 +436,20 @@
         <v>101</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C4" s="2">
-        <v>45412</v>
+        <v>45490</v>
       </c>
       <c r="D4" s="1">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="E4" s="1">
-        <v>0.125</v>
+        <v>0.22916666666666666</v>
       </c>
       <c r="G4" t="str">
         <f>_xlfn.CONCAT($A$1, A4, ",'", B4, "','", TEXT(C4, "DD/MM/YYYY"), "','", TEXT(D4, "HHMM"), "','", TEXT(E4, "HHMM"), "');")</f>
-        <v>INSERT INTO demand."Surveys"("SurveyID",  "SurveyDay", "SurveyDate", "BeatStartTime", "BeatEndTime") VALUES (101,'Tuesday','30/04/2024','0030','0300');</v>
+        <v>INSERT INTO demand."Surveys"("SurveyID",  "SurveyDay", "SurveyDate", "BeatStartTime", "BeatEndTime") VALUES (101,'Wednesday','17/07/2024','0030','0530');</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -454,20 +457,20 @@
         <v>201</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5" s="2">
-        <v>45413</v>
+        <v>45491</v>
       </c>
       <c r="D5" s="1">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="E5" s="1">
-        <v>0.125</v>
+        <v>0.22916666666666666</v>
       </c>
       <c r="G5" t="str">
         <f t="shared" ref="G5" si="0">_xlfn.CONCAT($A$1, A5, ",'", B5, "','", TEXT(C5, "DD/MM/YYYY"), "','", TEXT(D5, "HHMM"), "','", TEXT(E5, "HHMM"), "');")</f>
-        <v>INSERT INTO demand."Surveys"("SurveyID",  "SurveyDay", "SurveyDate", "BeatStartTime", "BeatEndTime") VALUES (201,'Wednesday','01/05/2024','0030','0300');</v>
+        <v>INSERT INTO demand."Surveys"("SurveyID",  "SurveyDay", "SurveyDate", "BeatStartTime", "BeatEndTime") VALUES (201,'Thursday','18/07/2024','0030','0530');</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
